--- a/02_for_predict_data.xlsx
+++ b/02_for_predict_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janet\Desktop\CECI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yo\Desktop\CECI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D517E6-E859-4AC9-A925-E7AE8AD129E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A976288-4E94-49D3-B2EF-82316169021A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-2670" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -103,43 +103,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -152,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -160,28 +123,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -192,14 +138,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
+          <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -213,7 +152,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -243,9 +182,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -283,9 +222,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,9 +257,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -353,9 +309,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -531,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -677,19 +650,19 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
         <v>38.340000000000501</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="2">
         <v>39.140000000000597</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="2">
         <v>2.160769230769231</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="2">
         <v>7</v>
       </c>
     </row>
@@ -813,19 +786,19 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>2</v>
-      </c>
-      <c r="B17" s="7">
+      <c r="A17" s="4">
+        <v>2</v>
+      </c>
+      <c r="B17" s="4">
         <v>62.000000000004199</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="4">
         <v>64.800000000004701</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="4">
         <v>2.2327272727272729</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="4">
         <v>15</v>
       </c>
     </row>
@@ -1206,19 +1179,19 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:D39 E2:E39">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$A1=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$A1=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$A1=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$A1=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$A1=5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/02_for_predict_data.xlsx
+++ b/02_for_predict_data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yo\Desktop\CECI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A976288-4E94-49D3-B2EF-82316169021A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D283B1AB-179C-421A-809C-AB625C65A2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-2670" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -127,7 +127,112 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD6C1B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD6C1B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -167,6 +272,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD6C1B4"/>
+      <color rgb="FFFFCC99"/>
       <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
@@ -502,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -516,7 +623,7 @@
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,7 +637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -547,7 +654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -563,8 +670,12 @@
       <c r="E3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f>C3-C2</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -580,8 +691,12 @@
       <c r="E4" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" ref="F4:F39" si="0">C4-C3</f>
+        <v>1.6400000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -597,8 +712,12 @@
       <c r="E5" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>1.2600000000000016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -614,8 +733,12 @@
       <c r="E6" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>4.5199999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -631,8 +754,12 @@
       <c r="E7" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.53999999999999915</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -648,8 +775,12 @@
       <c r="E8" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>4.0000000000004974</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -665,8 +796,12 @@
       <c r="E9" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.82000000000009976</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -682,8 +817,12 @@
       <c r="E10" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>7.2600000000012059</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -699,8 +838,12 @@
       <c r="E11" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1.8200000000002987</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2</v>
       </c>
@@ -716,8 +859,12 @@
       <c r="E12" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>2.1000000000002998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>3</v>
       </c>
@@ -733,8 +880,12 @@
       <c r="E13" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1.3200000000001992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -750,8 +901,12 @@
       <c r="E14" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0.6000000000001009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>3</v>
       </c>
@@ -767,8 +922,12 @@
       <c r="E15" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1.5800000000001972</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -784,8 +943,12 @@
       <c r="E16" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>8.160000000001304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2</v>
       </c>
@@ -801,8 +964,12 @@
       <c r="E17" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>2.8200000000004977</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>5</v>
       </c>
@@ -818,8 +985,12 @@
       <c r="E18" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>1.0400000000001057</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2</v>
       </c>
@@ -835,8 +1006,12 @@
       <c r="E19" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>1.040000000000191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -852,8 +1027,12 @@
       <c r="E20" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0.74000000000010857</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>3</v>
       </c>
@@ -869,8 +1048,12 @@
       <c r="E21" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>1.000000000000199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -886,8 +1069,12 @@
       <c r="E22" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>1.3200000000001921</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>5</v>
       </c>
@@ -903,8 +1090,12 @@
       <c r="E23" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>3.6399999999938046</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>3</v>
       </c>
@@ -920,8 +1111,12 @@
       <c r="E24" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0.65999999999989711</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -937,8 +1132,12 @@
       <c r="E25" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>2.339999999999506</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2</v>
       </c>
@@ -954,8 +1153,12 @@
       <c r="E26" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>2.3799999999994981</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>5</v>
       </c>
@@ -971,8 +1174,12 @@
       <c r="E27" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>5.0599999999989933</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -988,8 +1195,12 @@
       <c r="E28">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>1.1599999999997976</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1005,8 +1216,12 @@
       <c r="E29">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0.59999999999990905</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1022,8 +1237,12 @@
       <c r="E30">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>1.359999999999701</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1039,8 +1258,12 @@
       <c r="E31">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>1.2399999999996965</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1056,8 +1279,12 @@
       <c r="E32">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>1.1999999999998039</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5</v>
       </c>
@@ -1073,8 +1300,12 @@
       <c r="E33">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>1.3199999999996948</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1090,8 +1321,12 @@
       <c r="E34">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>5.3199999999989984</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1107,8 +1342,12 @@
       <c r="E35">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>0.53999999999990678</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1124,8 +1363,12 @@
       <c r="E36">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>0.9599999999997948</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1141,8 +1384,12 @@
       <c r="E37">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>2.8199999999994958</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5</v>
       </c>
@@ -1158,8 +1405,12 @@
       <c r="E38">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>3.8399999999990087</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1174,24 +1425,28 @@
       </c>
       <c r="E39">
         <v>37</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>0.61999999999999034</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:D39 E2:E39">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>$A1=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>$A1=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>$A1=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>$A1=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>$A1=5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/02_for_predict_data.xlsx
+++ b/02_for_predict_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janet\Desktop\CECI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F18517E-EE0F-4F9C-815C-F7647C146434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2BECFF-12B4-45BE-966D-D01AE0CD1CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,6 +38,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -173,7 +176,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -187,6 +190,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - 輔色2" xfId="1" builtinId="34"/>
@@ -504,7 +516,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B2" sqref="B2:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -533,10 +545,10 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="11">
         <v>0.02</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="11">
         <v>24.86</v>
       </c>
       <c r="D2" s="4">
@@ -550,10 +562,10 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="12">
         <v>24.88</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="12">
         <v>26.36</v>
       </c>
       <c r="D3" s="5">
@@ -567,10 +579,10 @@
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="13">
         <v>26.38</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="13">
         <v>39.140000000000597</v>
       </c>
       <c r="D4" s="6">
@@ -584,10 +596,10 @@
       <c r="A5" s="7">
         <v>5</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="14">
         <v>39.1600000000007</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="14">
         <v>48.220000000002102</v>
       </c>
       <c r="D5" s="7">
@@ -601,10 +613,10 @@
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="12">
         <v>48.240000000002098</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="12">
         <v>51.140000000002502</v>
       </c>
       <c r="D6" s="5">
@@ -618,10 +630,10 @@
       <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="14">
         <v>51.160000000002498</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="14">
         <v>52.240000000002702</v>
       </c>
       <c r="D7" s="7">
@@ -635,10 +647,10 @@
       <c r="A8" s="8">
         <v>3</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="15">
         <v>52.260000000002698</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="15">
         <v>53.820000000002899</v>
       </c>
       <c r="D8" s="8">
@@ -652,10 +664,10 @@
       <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="13">
         <v>53.840000000002902</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="13">
         <v>64.800000000004701</v>
       </c>
       <c r="D9" s="6">
@@ -669,10 +681,10 @@
       <c r="A10" s="9">
         <v>5</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="16">
         <v>64.820000000004697</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="16">
         <v>65.840000000004807</v>
       </c>
       <c r="D10" s="9">
@@ -686,10 +698,10 @@
       <c r="A11" s="5">
         <v>2</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="12">
         <v>65.860000000004803</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="12">
         <v>68.620000000005305</v>
       </c>
       <c r="D11" s="5">
@@ -703,10 +715,10 @@
       <c r="A12" s="6">
         <v>1</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="13">
         <v>68.640000000005301</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="13">
         <v>69.940000000005497</v>
       </c>
       <c r="D12" s="6">
@@ -720,10 +732,10 @@
       <c r="A13" s="7">
         <v>5</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="14">
         <v>69.960000000005493</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="14">
         <v>74.239999999999199</v>
       </c>
       <c r="D13" s="7">
@@ -737,10 +749,10 @@
       <c r="A14" s="6">
         <v>1</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="13">
         <v>74.259999999999195</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="13">
         <v>76.579999999998705</v>
       </c>
       <c r="D14" s="6">
@@ -754,10 +766,10 @@
       <c r="A15" s="5">
         <v>2</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="12">
         <v>76.599999999998701</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="12">
         <v>78.959999999998203</v>
       </c>
       <c r="D15" s="5">
@@ -771,10 +783,10 @@
       <c r="A16" s="9">
         <v>5</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="16">
         <v>78.979999999998199</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="16">
         <v>84.019999999997196</v>
       </c>
       <c r="D16" s="9">
@@ -788,10 +800,10 @@
       <c r="A17" s="8">
         <v>3</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="15">
         <v>84.039999999997207</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="15">
         <v>89.579999999996105</v>
       </c>
       <c r="D17" s="8">
@@ -805,10 +817,10 @@
       <c r="A18" s="10">
         <v>4</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="17">
         <v>89.599999999996101</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="17">
         <v>93.799999999995293</v>
       </c>
       <c r="D18" s="10">
@@ -822,10 +834,10 @@
       <c r="A19" s="2">
         <v>2</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="18">
         <v>93.819999999995304</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="18">
         <v>100.539999999994</v>
       </c>
       <c r="D19" s="2">
@@ -839,10 +851,10 @@
       <c r="A20" s="3">
         <v>5</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="19">
         <v>100.55999999999401</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="19">
         <v>104.99999999999299</v>
       </c>
       <c r="D20" s="3">
